--- a/hardware/Project Outputs for SpinASM/SpinASM.xlsx
+++ b/hardware/Project Outputs for SpinASM/SpinASM.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20339"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\05 - Spinsemi\vscode-spinasm\hardware\Project Outputs for SpinASM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE43EF4-90BF-420F-9A6B-85CEE7397574}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="19995" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xmlns:d3p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xWindow="480" yWindow="120" windowWidth="19995" windowHeight="15585" d3p1:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM Simple" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'BOM Simple'!$A$1:$H$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr fullPrecision="1" calcMode="auto" calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>Quantity</t>
   </si>
@@ -283,38 +277,77 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="204"/>
+      <color theme="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="204"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -369,62 +402,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf xxid="0" numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf xxid="19" numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs>
+    <xf xxid="1" numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="2" numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="3" numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="4" numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="5" numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="6" numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="7" numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="8" numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="9" numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="10" numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="11" numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="12" numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="13" numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="14" numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="15" numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="16" numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf xxid="17" numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="18" numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
+  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -697,26 +733,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScaleNormal="100" view="normal" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" baseColWidth="0"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="18.56640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.13671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8515625" style="16" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.56640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="34.28125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.99609375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="25.5">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -742,7 +779,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -764,7 +801,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -786,7 +823,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -808,7 +845,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
@@ -830,7 +867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -852,7 +889,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -874,7 +911,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -896,7 +933,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
@@ -918,7 +955,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -936,7 +973,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
@@ -958,7 +995,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -980,7 +1017,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -998,7 +1035,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -1020,7 +1057,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>20</v>
       </c>
@@ -1042,7 +1079,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -1064,7 +1101,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
@@ -1086,7 +1123,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>

--- a/hardware/Project Outputs for SpinASM/SpinASM.xlsx
+++ b/hardware/Project Outputs for SpinASM/SpinASM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\05 - Spinsemi\vscode-spinasm\hardware\Project Outputs for SpinASM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CF2107-940B-4FC6-8827-BD7559390766}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914E77F0-191F-4A64-9261-39C10C36B249}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="19995" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="BOM Simple" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOM Simple'!$A$1:$F$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOM Simple'!$A$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>Quantity</t>
   </si>
@@ -40,21 +40,15 @@
     <t>Designator</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
+    <t>C1, C5</t>
+  </si>
+  <si>
+    <t>C2, C6, C7</t>
   </si>
   <si>
     <t>C3, C4</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6, C7</t>
-  </si>
-  <si>
     <t>C8, C9</t>
   </si>
   <si>
@@ -64,6 +58,9 @@
     <t>D2, D3</t>
   </si>
   <si>
+    <t>D4</t>
+  </si>
+  <si>
     <t>IC1</t>
   </si>
   <si>
@@ -94,21 +91,15 @@
     <t>Y1</t>
   </si>
   <si>
-    <t>4.7u</t>
-  </si>
-  <si>
-    <t>10n</t>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>100n</t>
   </si>
   <si>
     <t>47p</t>
   </si>
   <si>
-    <t>10u</t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
     <t>22p</t>
   </si>
   <si>
@@ -118,6 +109,9 @@
     <t>RED</t>
   </si>
   <si>
+    <t>S1A</t>
+  </si>
+  <si>
     <t>FT230X</t>
   </si>
   <si>
@@ -145,21 +139,15 @@
     <t>ABM10</t>
   </si>
   <si>
-    <t>T491A475K010AT</t>
-  </si>
-  <si>
-    <t>MC0603B103K500CT</t>
+    <t>TMK316B7106KL-TD</t>
+  </si>
+  <si>
+    <t>MC0603B104K500CT</t>
   </si>
   <si>
     <t>MC0603N470J500CT</t>
   </si>
   <si>
-    <t>T491A106K016AT</t>
-  </si>
-  <si>
-    <t>MC0603B104K500CT</t>
-  </si>
-  <si>
     <t>MC0603N220J500CT</t>
   </si>
   <si>
@@ -196,21 +184,15 @@
     <t>ABM10-166-12.000MHZ-T3</t>
   </si>
   <si>
-    <t>CAP TANT 4.7UF 10V</t>
-  </si>
-  <si>
-    <t>CAP CER 10NF 50V X7R 0603</t>
+    <t>CAP CER 10uF 25V X7R 1206</t>
+  </si>
+  <si>
+    <t>CAP CER 100NF 50V X7R 0603</t>
   </si>
   <si>
     <t>CAP CER 47PF 50V C0G/NP0 0603</t>
   </si>
   <si>
-    <t>CAP TANT 10UF 16V</t>
-  </si>
-  <si>
-    <t>CAP CER 100NF 50V X7R 0603</t>
-  </si>
-  <si>
     <t>CAP CER 22PF 50V C0G/NP0 0603</t>
   </si>
   <si>
@@ -220,6 +202,9 @@
     <t>LED RED CLEAR CHIP SMD</t>
   </si>
   <si>
+    <t>DIODE GEN PURP 50V 1A SMA</t>
+  </si>
+  <si>
     <t>USB-to-UART 1-CH 512byte FIFO 5V 16-Pin SSOP T/R</t>
   </si>
   <si>
@@ -250,21 +235,15 @@
     <t>Price</t>
   </si>
   <si>
-    <t>0.189</t>
-  </si>
-  <si>
-    <t>0.0147</t>
+    <t>0.149</t>
+  </si>
+  <si>
+    <t>0.0458</t>
   </si>
   <si>
     <t>0.02</t>
   </si>
   <si>
-    <t>0.159</t>
-  </si>
-  <si>
-    <t>0.0458</t>
-  </si>
-  <si>
     <t>0.024</t>
   </si>
   <si>
@@ -274,6 +253,9 @@
     <t>0.053</t>
   </si>
   <si>
+    <t>0.072</t>
+  </si>
+  <si>
     <t>1.73</t>
   </si>
   <si>
@@ -295,7 +277,7 @@
     <t>0.41</t>
   </si>
   <si>
-    <t>sTotal</t>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -342,7 +324,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -393,16 +375,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -440,6 +459,24 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -721,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -755,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -766,23 +803,23 @@
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="10">
+        <v>70</v>
+      </c>
+      <c r="G2" s="16">
         <f>E2*F2</f>
-        <v>0.189</v>
+        <v>0.29799999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -790,23 +827,23 @@
         <v>6</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E3" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="10">
-        <f t="shared" ref="G3:G19" si="0">E3*F3</f>
-        <v>1.47E-2</v>
+        <v>71</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" ref="G3:G18" si="0">E3*F3</f>
+        <v>0.13739999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -814,21 +851,21 @@
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="10">
+        <v>72</v>
+      </c>
+      <c r="G4" s="17">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
@@ -838,23 +875,23 @@
         <v>8</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.159</v>
+        <v>73</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -862,23 +899,23 @@
         <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="10">
-        <f t="shared" si="0"/>
-        <v>9.1600000000000001E-2</v>
+        <v>74</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -886,23 +923,23 @@
         <v>10</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="10">
-        <f t="shared" si="0"/>
-        <v>4.8000000000000001E-2</v>
+        <v>75</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.106</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -910,23 +947,23 @@
         <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="10">
-        <f t="shared" si="0"/>
-        <v>4.7E-2</v>
+        <v>76</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -934,23 +971,23 @@
         <v>12</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="10">
-        <f t="shared" si="0"/>
-        <v>0.106</v>
+        <v>77</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="0"/>
+        <v>1.73</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -958,23 +995,19 @@
         <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>65</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="10">
-        <f t="shared" si="0"/>
-        <v>1.73</v>
+      <c r="F10" s="2"/>
+      <c r="G10" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -982,19 +1015,23 @@
         <v>14</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F11" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="0"/>
+        <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1002,23 +1039,23 @@
         <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="10">
-        <f t="shared" si="0"/>
-        <v>0.79400000000000004</v>
+        <v>79</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="0"/>
+        <v>0.154</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1026,23 +1063,23 @@
         <v>16</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="10">
-        <f t="shared" si="0"/>
-        <v>0.154</v>
+        <v>80</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1050,23 +1087,23 @@
         <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="10">
-        <f t="shared" si="0"/>
-        <v>3.3000000000000002E-2</v>
+        <v>81</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="0"/>
+        <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1074,23 +1111,23 @@
         <v>18</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="10">
-        <f t="shared" si="0"/>
-        <v>1.3100000000000001E-2</v>
+        <v>81</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="0"/>
+        <v>2.6200000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1098,23 +1135,23 @@
         <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="10">
-        <f t="shared" si="0"/>
-        <v>2.6200000000000001E-2</v>
+        <v>80</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="0"/>
+        <v>4.9500000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1122,77 +1159,53 @@
         <v>20</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="0"/>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="4">
-        <v>3</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="10">
-        <f t="shared" si="0"/>
-        <v>4.9500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="C18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="22">
         <v>1</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="10">
-        <f t="shared" si="0"/>
-        <v>1.1299999999999999</v>
+      <c r="F18" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="10">
-        <f t="shared" si="0"/>
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G20" s="16">
-        <f>SUM(G2:G19)</f>
-        <v>5.0350999999999999</v>
+      <c r="G19" s="24">
+        <f>SUM(G2:G18)</f>
+        <v>5.0881999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/Project Outputs for SpinASM/SpinASM.xlsx
+++ b/hardware/Project Outputs for SpinASM/SpinASM.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\05 - Spinsemi\vscode-spinasm\hardware\Project Outputs for SpinASM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914E77F0-191F-4A64-9261-39C10C36B249}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA42D08-B227-4C96-BB1B-459B7B2ED673}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="19995" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="19992" windowHeight="15588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM Simple" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOM Simple'!$A$1:$F$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOM Simple'!$A$1:$F$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>Quantity</t>
   </si>
@@ -64,9 +64,6 @@
     <t>IC1</t>
   </si>
   <si>
-    <t>ICSP</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -160,10 +157,7 @@
     <t>FT230XS-R</t>
   </si>
   <si>
-    <t>AVRISP_POGO</t>
-  </si>
-  <si>
-    <t>48037-2200</t>
+    <t>KUSBX-SMT2AP5S-W</t>
   </si>
   <si>
     <t>CRCW060327R0FKEA</t>
@@ -208,7 +202,7 @@
     <t>USB-to-UART 1-CH 512byte FIFO 5V 16-Pin SSOP T/R</t>
   </si>
   <si>
-    <t>USB Connectors USB A PLUG SMT STR S SHELL LEG 3.8mm L/F</t>
+    <t>Conn USB Type A PL 4 POS 2mm Solder ST SMD 4 Terminal 1 Port</t>
   </si>
   <si>
     <t>Conn Unshrouded Header HDR 5 POS 2.54mm Solder RA Thru-Hole Poly Bag</t>
@@ -259,7 +253,7 @@
     <t>1.73</t>
   </si>
   <si>
-    <t>0.794</t>
+    <t>0.735</t>
   </si>
   <si>
     <t>0.154</t>
@@ -277,7 +271,16 @@
     <t>0.41</t>
   </si>
   <si>
+    <t>AK-N-12</t>
+  </si>
+  <si>
+    <t>PLASTIC ENCLOSURE</t>
+  </si>
+  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Total :</t>
   </si>
 </sst>
 </file>
@@ -313,7 +316,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="204"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -324,7 +327,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -375,108 +378,62 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -758,455 +715,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="65.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="17">
         <v>2</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="16">
+        <v>68</v>
+      </c>
+      <c r="G2" s="10">
         <f>E2*F2</f>
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="17">
         <v>3</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="17">
+      <c r="F3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="10">
         <f t="shared" ref="G3:G18" si="0">E3*F3</f>
         <v>0.13739999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="17">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="17">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="0"/>
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="17">
         <v>2</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="17">
-        <f t="shared" si="0"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="F7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="0"/>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="17">
         <v>2</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="17">
-        <f t="shared" si="0"/>
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="F12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="17">
         <v>1</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="17">
-        <f t="shared" si="0"/>
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="F13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="0"/>
+        <v>1.3100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="17">
         <v>2</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="17">
-        <f t="shared" si="0"/>
-        <v>0.106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="F14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="17">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="0"/>
+        <v>4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="17">
         <v>1</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="17">
-        <f t="shared" si="0"/>
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="F16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="17">
         <v>1</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="17">
-        <f t="shared" si="0"/>
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="4">
+      <c r="F17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="17">
         <v>1</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="17">
-        <f t="shared" si="0"/>
-        <v>0.79400000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="17">
-        <f t="shared" si="0"/>
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="17">
-        <f t="shared" si="0"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="17">
-        <f t="shared" si="0"/>
-        <v>1.3100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="17">
-        <f t="shared" si="0"/>
-        <v>2.6200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="17">
-        <f t="shared" si="0"/>
-        <v>4.9500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="17">
-        <f t="shared" si="0"/>
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="22">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="23">
-        <f t="shared" si="0"/>
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="24">
+      <c r="F18" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="19">
         <f>SUM(G2:G18)</f>
-        <v>5.0881999999999996</v>
-      </c>
+        <v>7.5291999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
